--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject31.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject31.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.86724043553707997</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.68714072524313385</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -167,7 +167,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0</v>
+        <v>0.59071812685814695</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0</v>
+        <v>0.85162545364511033</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.57997078348843822</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.9916784696904799</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.59416456677228591</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="AO2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>0</v>
+        <v>0.79022893534344418</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.5113953070090328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.92306296516500552</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.73715749211083914</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.77633845779986888</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.74566251532275674</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.89386018788839172</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.68546522085750361</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.98314690641517077</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>0</v>
+        <v>0.75315864371914332</v>
       </c>
       <c r="BN4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.50716894723146</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.92396526484034647</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.79349679944326912</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="0">
-        <v>0</v>
+        <v>0.9225154940173208</v>
       </c>
       <c r="S5" s="0">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.93688449567323362</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.88372305311146437</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="0">
-        <v>0</v>
+        <v>0.75707904034075679</v>
       </c>
       <c r="AY6" s="0">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>0</v>
+        <v>0.95403272437392106</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.85986825392762101</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.99173540566027363</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.96875718355781038</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="0">
-        <v>0</v>
+        <v>0.97305718608398628</v>
       </c>
       <c r="AU7" s="0">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="0">
-        <v>0</v>
+        <v>0.97405721015702973</v>
       </c>
       <c r="BF7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.88019173651400351</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.87490098129219374</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.83391131009560004</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.53877243270911346</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.95394008401356989</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.90864773835326962</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.53344016019600082</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>0</v>
+        <v>0.98219462911211342</v>
       </c>
       <c r="X9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.75564861301378095</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.63286319095431431</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.65288335378844453</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>0</v>
+        <v>0.85438237745478984</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="0">
-        <v>0</v>
+        <v>0.81585093276032228</v>
       </c>
       <c r="AZ10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.80637262706220136</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.83364016376319117</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2421,22 +2421,22 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.97039405114125077</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.63979235087654407</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.93007647818245198</v>
       </c>
       <c r="O12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.5789422295148039</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.96134378009796562</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.51270298910326306</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.57164446154533621</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2806,13 +2806,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.88577763950138066</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.66425282491361526</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.76856648195424992</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0</v>
+        <v>0.67809584829664316</v>
       </c>
       <c r="Y14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>0</v>
+        <v>0.56889012284021945</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3045,22 +3045,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.94847289500427356</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.73625715333126363</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.63825891555951575</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>0</v>
+        <v>0.86484089954069265</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.7054921702190371</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.69567415309116531</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0</v>
+        <v>0.79953458721073378</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.71299581805219614</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.85625429859124136</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.51561113985952844</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>0</v>
+        <v>0.97642044345745993</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0</v>
+        <v>0.58554172656587811</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>0.56004054866299779</v>
       </c>
       <c r="F18" s="0">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.65107383041467659</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.69530407806459216</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.52721828090056611</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.95146438834532676</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.51393953588295149</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.98738430215560302</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.67913692116533153</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.56148926305395608</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.68963360760632397</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.96300176969609352</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>0</v>
+        <v>0.66836203448002984</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>0</v>
+        <v>0.61731531545667662</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.50992120010352926</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.58676980374706722</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0</v>
+        <v>0.88615193527625391</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>0</v>
+        <v>0.84528745635314517</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>0</v>
+        <v>0.51917626777162029</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.96245597061024091</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.99345350380850928</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.51151633400506547</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.76707942772049553</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>0</v>
+        <v>0.82582155205869345</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.9241250270135607</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.75069794308171689</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.93219807568371504</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>0</v>
+        <v>0.89883967437136358</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0</v>
+        <v>0.60217919625845984</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.99605717129692839</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.79007330338830173</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0</v>
+        <v>0.62026949387535057</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0</v>
+        <v>0.82858432900235002</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>0</v>
+        <v>0.6212579446234523</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.98365159083100906</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.96654930014283513</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.69554350734822745</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AY26" s="0">
-        <v>0</v>
+        <v>0.87166663330298177</v>
       </c>
       <c r="AZ26" s="0">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="BN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.9360000129607321</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.64654660969497102</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.71171658073727806</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="0">
-        <v>0</v>
+        <v>0.81290112971571238</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.56914118829925742</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.61892204489774116</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.84648657672692829</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.62794995357173167</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.54227827301044085</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.6912690343384762</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.84923962880780213</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.76918720779400429</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.81642555926790772</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.79020684499877047</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.72889536362019758</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.58573933795938926</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.72436620930696449</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>0</v>
+        <v>0.87347630490221606</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.62327795687743259</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.82496178407437948</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.82263183656655448</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0</v>
+        <v>0.69032147097778118</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.53915188770814959</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.99580694900952327</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.72397139362332563</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>0</v>
+        <v>0.94084234510367226</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>0.50290982791617367</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.86259234723589506</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.8775222231494948</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.8342300012263999</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0</v>
+        <v>0.99510311332451273</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.78181620069670976</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.85098350321276439</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.72874192046886788</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0</v>
+        <v>0.61647068624136159</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.58061774326600335</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.94749729672077354</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.58619397545601382</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.89372721199239324</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.59405063933787794</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.7066866388476496</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.64918703389416055</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.52157303175372072</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.70265063861364063</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.83171588058708179</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0</v>
+        <v>0.76748498112848651</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.75846109828724184</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.66628738341271099</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.97844733472883072</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.9792768085937178</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0</v>
+        <v>0.56292060387038056</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.77610157694111681</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.98107934479330894</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.81744787454597234</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.6842969822501821</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.94130345941364957</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.50457767414234311</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.72581479560716911</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0</v>
+        <v>0.67472899813166598</v>
       </c>
       <c r="B41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0</v>
+        <v>0.60516247725115058</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8482,16 +8482,16 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.58212332035422221</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>0</v>
+        <v>0.65170380713830522</v>
       </c>
     </row>
     <row r="42">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.81485365217605854</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.95128622980250666</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.89510710169799845</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8903,19 +8903,19 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.51982258646632351</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.69491771597030549</v>
       </c>
       <c r="AT43" s="0">
-        <v>0</v>
+        <v>0.72954340665626938</v>
       </c>
       <c r="AU43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.94074518181423383</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.95765726483364233</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.56872949701304853</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.56604144138347634</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.63255957577478705</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.92638926502693786</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="0">
-        <v>0</v>
+        <v>0.83794909622267144</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>0</v>
+        <v>0.50531045475359249</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -9524,22 +9524,22 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="0">
-        <v>0</v>
+        <v>0.68700784898988076</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.82931488738059622</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.55059685758513943</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.85072324898721952</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.72889388553471834</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>0</v>
+        <v>0.54908966679478033</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.99387179906031542</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.51059504562683189</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>0</v>
+        <v>0.72156588540349864</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.83115888291468942</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.89318875385006447</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.58782619380245438</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.72871478239266196</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.94348176883402357</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.55822453896718216</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>0</v>
+        <v>0.68988467649630647</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
+        <v>0.62173148782823073</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.56591366300245971</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.5494874775623878</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0</v>
+        <v>0.82496678228753217</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="0">
-        <v>0</v>
+        <v>0.66655481327713928</v>
       </c>
       <c r="AA51" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.86406211716301673</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.97295097157323773</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.63390932192777805</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.72503153128164133</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0</v>
+        <v>0.84217205296733399</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0</v>
+        <v>0.7242408497953321</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10778,13 +10778,13 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.64612327988376228</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.89532702296934907</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.62283201805372701</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.96548549015776508</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>1</v>
+        <v>0.64191221510750807</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10900,10 +10900,10 @@
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>0</v>
+        <v>0.5532619005267102</v>
       </c>
       <c r="V53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>0</v>
+        <v>0.76089058040662383</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.96786704243900368</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.55315078979123733</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.83609336516827071</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.97260764242412223</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>0</v>
+        <v>0.96650871678717909</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0</v>
+        <v>0.75316405982723311</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.95589754817616424</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.79638427471371043</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.88396053654512508</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11617,16 +11617,16 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.75865099914542578</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.68101031444891647</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.91128931394088641</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>0</v>
+        <v>0.95049120192316772</v>
       </c>
       <c r="BP56" s="0">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>0</v>
+        <v>0.55601546096522969</v>
       </c>
       <c r="H57" s="0">
         <v>0</v>
@@ -11706,13 +11706,13 @@
         <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>0</v>
+        <v>0.66213752897136913</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0</v>
+        <v>0.65860976047042641</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.88215398977714987</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.94305913055886159</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12038,16 +12038,16 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.65357256507027706</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.97212380543598564</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.75076096087682664</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.93058161936071082</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.60324184528980973</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.66393026899260277</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0</v>
+        <v>0.94982907705134934</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.57262590980013206</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.99761305866952799</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.50138359143337208</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.91396606077854714</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.78800266237167871</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.93586624769931159</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.98717148665759447</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.99750305195943434</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.7056536115491242</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.74464259294560808</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>0</v>
+        <v>0.61678091686812775</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="0">
-        <v>1</v>
+        <v>0.82452037199215367</v>
       </c>
       <c r="BA63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.64728789491357319</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.68766486117896219</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0</v>
+        <v>0.72854609891106548</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>0</v>
+        <v>0.90005453483007547</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>0</v>
+        <v>0.81917483131961766</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.739065973373217</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.77803276348870387</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0</v>
+        <v>0.51288107202941102</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.93176254784514323</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.8738720464716152</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.86360052104405893</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.93460929354209932</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.82741154120043992</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13883,13 +13883,13 @@
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0</v>
+        <v>0.77512870099167275</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.83244949416132075</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.85171773353726288</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.9064194316448565</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>0</v>
+        <v>0.61422139179858704</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.58947039960566716</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject31.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject31.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.86724043553707997</v>
+        <v>0.9916784696904799</v>
       </c>
       <c r="C1" s="0">
-        <v>0.68714072524313385</v>
+        <v>0.92306296516500552</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0.59071812685814695</v>
+        <v>0.67472899813166598</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0.85162545364511033</v>
+        <v>0.94982907705134934</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.57997078348843822</v>
+        <v>0.82741154120043992</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.59416456677228591</v>
+        <v>0.73715749211083914</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.5113953070090328</v>
+        <v>0.9064194316448565</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.77633845779986888</v>
+        <v>0.89386018788839172</v>
       </c>
       <c r="E3" s="0">
         <v>0.74566251532275674</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.68546522085750361</v>
+        <v>0.92396526484034647</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.50716894723146</v>
+        <v>0.74566251532275674</v>
       </c>
       <c r="D5" s="0">
         <v>0.92396526484034647</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.79349679944326912</v>
+        <v>0.85986825392762101</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.93688449567323362</v>
+        <v>0.99173540566027363</v>
       </c>
       <c r="H6" s="0">
         <v>0.88372305311146437</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.88019173651400351</v>
+        <v>0.88372305311146437</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.87490098129219374</v>
+        <v>0.90864773835326962</v>
       </c>
       <c r="J8" s="0">
         <v>0.83391131009560004</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.53877243270911346</v>
+        <v>0.98314690641517077</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.95394008401356989</v>
+        <v>0.96875718355781038</v>
       </c>
       <c r="H9" s="0">
         <v>0.90864773835326962</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.53344016019600082</v>
+        <v>0.63286319095431431</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.75564861301378095</v>
+        <v>0.83391131009560004</v>
       </c>
       <c r="I10" s="0">
         <v>0.63286319095431431</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.65288335378844453</v>
+        <v>0.97039405114125077</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>0.85438237745478984</v>
+        <v>0.87347630490221606</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.81585093276032228</v>
+        <v>0.82496678228753217</v>
       </c>
       <c r="AZ10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.80637262706220136</v>
       </c>
       <c r="M11" s="0">
-        <v>0.83364016376319117</v>
+        <v>0.96134378009796562</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0.97039405114125077</v>
       </c>
       <c r="K12" s="0">
-        <v>0.63979235087654407</v>
+        <v>0.80637262706220136</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.51270298910326306</v>
+        <v>0.66425282491361526</v>
       </c>
       <c r="O13" s="0">
-        <v>0.57164446154533621</v>
+        <v>0.94847289500427356</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.88577763950138066</v>
+        <v>0.93007647818245198</v>
       </c>
       <c r="M14" s="0">
         <v>0.66425282491361526</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>0.56889012284021945</v>
+        <v>0.72854609891106548</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0.94847289500427356</v>
       </c>
       <c r="N15" s="0">
-        <v>0.73625715333126363</v>
+        <v>0.76856648195424992</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.63825891555951575</v>
+        <v>0.71299581805219614</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.7054921702190371</v>
+        <v>0.85625429859124136</v>
       </c>
       <c r="R16" s="0">
         <v>0.69567415309116531</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.51561113985952844</v>
+        <v>0.69530407806459216</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0.58554172656587811</v>
+        <v>0.65860976047042641</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="0">
-        <v>0.56004054866299779</v>
+        <v>0.9225154940173208</v>
       </c>
       <c r="F18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.65107383041467659</v>
+        <v>0.69567415309116531</v>
       </c>
       <c r="Q18" s="0">
         <v>0.69530407806459216</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.51393953588295149</v>
+        <v>0.52721828090056611</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.56148926305395608</v>
+        <v>0.95146438834532676</v>
       </c>
       <c r="S20" s="0">
-        <v>0.68963360760632397</v>
+        <v>0.98738430215560302</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>0.61731531545667662</v>
+        <v>0.90005453483007547</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.50992120010352926</v>
+        <v>0.67913692116533153</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.58676980374706722</v>
+        <v>0.99345350380850928</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.88615193527625391</v>
+        <v>0.99510311332451273</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>0.51917626777162029</v>
+        <v>0.5532619005267102</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.96245597061024091</v>
+        <v>0.96300176969609352</v>
       </c>
       <c r="U22" s="0">
         <v>0.99345350380850928</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.51151633400506547</v>
+        <v>0.9241250270135607</v>
       </c>
       <c r="X22" s="0">
-        <v>0.76707942772049553</v>
+        <v>0.99605717129692839</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>0.82582155205869345</v>
+        <v>0.98219462911211342</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.75069794308171689</v>
+        <v>0.79007330338830173</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.93219807568371504</v>
+        <v>0.98365159083100906</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.60217919625845984</v>
+        <v>0.67809584829664316</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0.82858432900235002</v>
+        <v>0.84217205296733399</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>0.6212579446234523</v>
+        <v>0.79953458721073378</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.9360000129607321</v>
+        <v>0.96654930014283513</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.64654660969497102</v>
+        <v>0.84648657672692829</v>
       </c>
       <c r="AC27" s="0">
         <v>0.71171658073727806</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0.56914118829925742</v>
+        <v>0.5789422295148039</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.61892204489774116</v>
+        <v>0.69554350734822745</v>
       </c>
       <c r="AA28" s="0">
         <v>0.84648657672692829</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.62794995357173167</v>
+        <v>0.84923962880780213</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.54227827301044085</v>
+        <v>0.79020684499877047</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.6912690343384762</v>
+        <v>0.71171658073727806</v>
       </c>
       <c r="AB29" s="0">
         <v>0.84923962880780213</v>
@@ -6186,13 +6186,13 @@
         <v>0.79020684499877047</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.72889536362019758</v>
+        <v>0.76918720779400429</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.58573933795938926</v>
+        <v>0.82496178407437948</v>
       </c>
       <c r="AF30" s="0">
         <v>0.72436620930696449</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.62327795687743259</v>
+        <v>0.81642555926790772</v>
       </c>
       <c r="AD31" s="0">
         <v>0.82496178407437948</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.82263183656655448</v>
+        <v>0.99580694900952327</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0.69032147097778118</v>
+        <v>0.72156588540349864</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.53915188770814959</v>
+        <v>0.72436620930696449</v>
       </c>
       <c r="AE32" s="0">
         <v>0.99580694900952327</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.72397139362332563</v>
+        <v>0.86259234723589506</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0.50290982791617367</v>
+        <v>0.62026949387535057</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.78181620069670976</v>
+        <v>0.8775222231494948</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.85098350321276439</v>
+        <v>0.94749729672077354</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.72874192046886788</v>
+        <v>0.89372721199239324</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0.61647068624136159</v>
+        <v>0.89883967437136358</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.58061774326600335</v>
+        <v>0.8342300012263999</v>
       </c>
       <c r="AH35" s="0">
         <v>0.94749729672077354</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.58619397545601382</v>
+        <v>0.64918703389416055</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.59405063933787794</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.7066866388476496</v>
+        <v>0.75846109828724184</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0.64918703389416055</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.52157303175372072</v>
+        <v>0.59405063933787794</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0.76748498112848651</v>
+        <v>0.94084234510367226</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7858,13 +7858,13 @@
         <v>0.75846109828724184</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.66628738341271099</v>
+        <v>0.70265063861364063</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.97844733472883072</v>
+        <v>0.98107934479330894</v>
       </c>
       <c r="AN38" s="0">
         <v>0.9792768085937178</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0.56292060387038056</v>
+        <v>0.66836203448002984</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.77610157694111681</v>
+        <v>0.83171588058708179</v>
       </c>
       <c r="AL39" s="0">
         <v>0.98107934479330894</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.81744787454597234</v>
+        <v>0.94130345941364957</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.6842969822501821</v>
+        <v>0.9792768085937178</v>
       </c>
       <c r="AM40" s="0">
         <v>0.94130345941364957</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.50457767414234311</v>
+        <v>0.58212332035422221</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.72581479560716911</v>
+        <v>0.81485365217605854</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.60516247725115058</v>
+        <v>0.97642044345745993</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0.95128622980250666</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.89510710169799845</v>
+        <v>0.94074518181423383</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.51982258646632351</v>
+        <v>0.95128622980250666</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0.95765726483364233</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.56872949701304853</v>
+        <v>0.82931488738059622</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.56604144138347634</v>
+        <v>0.69491771597030549</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.63255957577478705</v>
+        <v>0.95765726483364233</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>0.50531045475359249</v>
+        <v>0.97305718608398628</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -9524,22 +9524,22 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="0">
-        <v>0.68700784898988076</v>
+        <v>0.72954340665626938</v>
       </c>
       <c r="AR46" s="0">
         <v>0.82931488738059622</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.55059685758513943</v>
+        <v>0.92638926502693786</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.85072324898721952</v>
+        <v>0.99387179906031542</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.72889388553471834</v>
+        <v>0.83115888291468942</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>0.54908966679478033</v>
+        <v>0.84528745635314517</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.51059504562683189</v>
+        <v>0.72871478239266196</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>0.58782619380245438</v>
+        <v>0.79022893534344418</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0.94348176883402357</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0.55822453896718216</v>
+        <v>0.64612327988376228</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0.62173148782823073</v>
+        <v>0.75707904034075679</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.56591366300245971</v>
+        <v>0.89318875385006447</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.5494874775623878</v>
+        <v>0.89532702296934907</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="0">
-        <v>0.66655481327713928</v>
+        <v>0.87166663330298177</v>
       </c>
       <c r="AA51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.86406211716301673</v>
+        <v>0.94348176883402357</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0.97295097157323773</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.63390932192777805</v>
+        <v>0.96786704243900368</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0.72503153128164133</v>
+        <v>0.88396053654512508</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0.7242408497953321</v>
+        <v>0.83794909622267144</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0.89532702296934907</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.62283201805372701</v>
+        <v>0.97295097157323773</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0.64191221510750807</v>
+        <v>0.82452037199215367</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>0.76089058040662383</v>
+        <v>0.81290112971571238</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.55315078979123733</v>
+        <v>0.96548549015776508</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.83609336516827071</v>
+        <v>0.95589754817616424</v>
       </c>
       <c r="BD54" s="0">
         <v>0.97260764242412223</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0.75316405982723311</v>
+        <v>0.95403272437392106</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.75865099914542578</v>
+        <v>0.97260764242412223</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.68101031444891647</v>
+        <v>0.79638427471371043</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="0">
-        <v>0.55601546096522969</v>
+        <v>0.97405721015702973</v>
       </c>
       <c r="H57" s="0">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>0.66213752897136913</v>
+        <v>0.86484089954069265</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.88215398977714987</v>
+        <v>0.91128931394088641</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.65357256507027706</v>
+        <v>0.93058161936071082</v>
       </c>
       <c r="BH58" s="0">
         <v>0.97212380543598564</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.75076096087682664</v>
+        <v>0.94305913055886159</v>
       </c>
       <c r="BF59" s="0">
         <v>0.93058161936071082</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.60324184528980973</v>
+        <v>0.99761305866952799</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.66393026899260277</v>
+        <v>0.91396606077854714</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.57262590980013206</v>
+        <v>0.97212380543598564</v>
       </c>
       <c r="BG60" s="0">
         <v>0.99761305866952799</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.50138359143337208</v>
+        <v>0.98717148665759447</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.78800266237167871</v>
+        <v>0.99750305195943434</v>
       </c>
       <c r="BK61" s="0">
         <v>0.93586624769931159</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>0.61678091686812775</v>
+        <v>0.68988467649630647</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.64728789491357319</v>
+        <v>0.93586624769931159</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.68766486117896219</v>
+        <v>0.7056536115491242</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>0.81917483131961766</v>
+        <v>0.96650871678717909</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.739065973373217</v>
+        <v>0.74464259294560808</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.77803276348870387</v>
+        <v>0.8738720464716152</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0.51288107202941102</v>
+        <v>0.75315864371914332</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0.77512870099167275</v>
+        <v>0.95049120192316772</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.83244949416132075</v>
+        <v>0.93176254784514323</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.85171773353726288</v>
+        <v>0.86360052104405893</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>0.61422139179858704</v>
+        <v>0.65170380713830522</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.58947039960566716</v>
+        <v>0.93460929354209932</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>
